--- a/experiment/output/results/VLCS/CORAL/SDG/0_1_3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/SDG/0_1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250127_07-36-04_resnet50_adam</t>
+          <t>250218_09-23-43_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70.024</v>
+        <v>66.572</v>
       </c>
       <c r="E2" t="n">
-        <v>62.32</v>
+        <v>66.602</v>
       </c>
       <c r="F2" t="n">
-        <v>67.40900000000001</v>
+        <v>66.715</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250127_01-33-59_resnet50_sgd</t>
+          <t>250217_23-18-04_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65.742</v>
+        <v>68.687</v>
       </c>
       <c r="E3" t="n">
-        <v>65.54900000000001</v>
+        <v>62.344</v>
       </c>
       <c r="F3" t="n">
-        <v>65.52500000000001</v>
+        <v>68.687</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -552,22 +552,368 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>250218_08-13-16_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>67.756</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64.279</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56.847</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250127_07-36-04_resnet50_adam</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>70.024</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67.40900000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250218_10-33-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>68.31100000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.538</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55.797</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250218_04-28-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>69.03400000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.385</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62.838</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250218_11-46-22_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250218_03-14-09_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>67.63800000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>66.47499999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>54.993</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250218_01-55-20_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>66.54300000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.115</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55.524</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250218_05-41-45_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>68.842</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.14100000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>56.628</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250218_07-01-39_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>68.402</v>
+      </c>
+      <c r="E12" t="n">
+        <v>62.242</v>
+      </c>
+      <c r="F12" t="n">
+        <v>47.099</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250127_01-33-59_resnet50_sgd</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>65.742</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65.54900000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65.52500000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250218_00-39-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>67.994</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.772</v>
+      </c>
+      <c r="F14" t="n">
+        <v>46.547</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0_1_3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>250131_11-49-33_resnet50_EVE</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D15" t="n">
         <v>68.05200000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E15" t="n">
         <v>61.139</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F15" t="n">
         <v>62.703</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
